--- a/data/fakecsv/dept_INSTA.xlsx
+++ b/data/fakecsv/dept_INSTA.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1051" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1391" uniqueCount="109">
   <si>
     <t>Department</t>
   </si>
@@ -25,7 +25,7 @@
     <t>User ID</t>
   </si>
   <si>
-    <t>Fullname</t>
+    <t>Name</t>
   </si>
   <si>
     <t>System1</t>
@@ -40,268 +40,280 @@
     <t>INSTA</t>
   </si>
   <si>
-    <t>LCMF8R5W6ZDR5Y1NM</t>
-  </si>
-  <si>
-    <t>NNB6TP71527ZSYE5X</t>
-  </si>
-  <si>
-    <t>4VANJGB51YLSNJ5CJ</t>
-  </si>
-  <si>
-    <t>WJNG7K5A4U1RF3ASX</t>
-  </si>
-  <si>
-    <t>EA3CW7VT04XFM67YJ</t>
-  </si>
-  <si>
-    <t>GDLTUBW92CXU8ZSPW</t>
-  </si>
-  <si>
-    <t>5U7Y1CY77D8FFGE7V</t>
-  </si>
-  <si>
-    <t>VCLCJ9DX4NFL17PBD</t>
-  </si>
-  <si>
-    <t>16PJY2NJ336N87N4D</t>
-  </si>
-  <si>
-    <t>2ZUGNZ7U8HYBVM7V5</t>
-  </si>
-  <si>
-    <t>PE7MLH3N8FKDXLN96</t>
-  </si>
-  <si>
-    <t>64PL9AM82R4LJN1H0</t>
-  </si>
-  <si>
-    <t>PR5PDCZ401WGSB5PS</t>
-  </si>
-  <si>
-    <t>CASEESY16ZTUMM21T</t>
-  </si>
-  <si>
-    <t>4D0ZDU4X7ZBSD3TC5</t>
-  </si>
-  <si>
-    <t>EW5XU99F69CKYRKTK</t>
-  </si>
-  <si>
-    <t>01BT3V2V4MFR4TF9K</t>
-  </si>
-  <si>
-    <t>R6DFJHJN6ZSYF4C36</t>
-  </si>
-  <si>
-    <t>57NCSGMK47VA0NGLS</t>
-  </si>
-  <si>
-    <t>Y59VZYWB3XXMJZY4U</t>
-  </si>
-  <si>
-    <t>NJP9JWXY1FP193TUG</t>
-  </si>
-  <si>
-    <t>6CYE7PK115227LRPP</t>
-  </si>
-  <si>
-    <t>6U3BUD825NMPU6E3A</t>
-  </si>
-  <si>
-    <t>VX7TN94TXPSN7D2WL</t>
-  </si>
-  <si>
-    <t>TSKM7K9Z497SG01PX</t>
-  </si>
-  <si>
-    <t>GL4KG3091U0B0W48C</t>
-  </si>
-  <si>
-    <t>FVN59H909CJ9RBT1F</t>
-  </si>
-  <si>
-    <t>WEL60DBB5JDHFFBSJ</t>
-  </si>
-  <si>
-    <t>HU123GCSXJ0HY3GE1</t>
-  </si>
-  <si>
-    <t>P323DB6N3K2K8WSSH</t>
-  </si>
-  <si>
-    <t>F0UBBEAP44J319MBM</t>
-  </si>
-  <si>
-    <t>383M4DB63PRM6VPSM</t>
-  </si>
-  <si>
-    <t>VL28RBEG1EZA737Z7</t>
-  </si>
-  <si>
-    <t>V11159ZB54JPKPRT9</t>
-  </si>
-  <si>
-    <t>WSM9ZNYB7V8H1ETCF</t>
-  </si>
-  <si>
-    <t>P04UTCNL7FBCPPCZ1</t>
-  </si>
-  <si>
-    <t>K15LPC2B7G97D3DFC</t>
-  </si>
-  <si>
-    <t>NW2WVCVL65MAG1PHS</t>
-  </si>
-  <si>
-    <t>5T2T4CYJ7V9K7DE8H</t>
-  </si>
-  <si>
-    <t>CREJVEU1083A9053J</t>
-  </si>
-  <si>
-    <t>YGJ80XY24GCP6J513</t>
-  </si>
-  <si>
-    <t>5K2AS1KB42A6B3LLA</t>
-  </si>
-  <si>
-    <t>F0KJK13D1SFTHUF3E</t>
-  </si>
-  <si>
-    <t>N7N3WK017DA33L828</t>
-  </si>
-  <si>
-    <t>Paul Matthews</t>
-  </si>
-  <si>
-    <t>Pamela Bennett</t>
-  </si>
-  <si>
-    <t>Gina Green</t>
-  </si>
-  <si>
-    <t>Maria Rogers</t>
-  </si>
-  <si>
-    <t>Brent Williams</t>
-  </si>
-  <si>
-    <t>Samuel Flores</t>
-  </si>
-  <si>
-    <t>Kelsey Ingram</t>
-  </si>
-  <si>
-    <t>John Patel</t>
-  </si>
-  <si>
-    <t>Jason Ferguson</t>
-  </si>
-  <si>
-    <t>Amber Osborn</t>
-  </si>
-  <si>
-    <t>Andrew Romero</t>
-  </si>
-  <si>
-    <t>Katherine Hancock</t>
-  </si>
-  <si>
-    <t>Barbara Spencer</t>
-  </si>
-  <si>
-    <t>Alexander Evans</t>
-  </si>
-  <si>
-    <t>Ryan Yates</t>
-  </si>
-  <si>
-    <t>Johnny Diaz</t>
-  </si>
-  <si>
-    <t>Richard Harris DVM</t>
-  </si>
-  <si>
-    <t>Amy Mahoney</t>
-  </si>
-  <si>
-    <t>Jesse Foster</t>
-  </si>
-  <si>
-    <t>Mrs. Paula Hansen</t>
-  </si>
-  <si>
-    <t>Erin Park</t>
-  </si>
-  <si>
-    <t>Adrian Wong</t>
-  </si>
-  <si>
-    <t>Kristen Martinez</t>
-  </si>
-  <si>
-    <t>Zachary Welch</t>
-  </si>
-  <si>
-    <t>Catherine Howard</t>
-  </si>
-  <si>
-    <t>Brian Foster</t>
-  </si>
-  <si>
-    <t>Jaime Gregory</t>
-  </si>
-  <si>
-    <t>Susan Mosley</t>
-  </si>
-  <si>
-    <t>Darrell Brown</t>
-  </si>
-  <si>
-    <t>Robert Adkins</t>
-  </si>
-  <si>
-    <t>Michael Hutchinson</t>
-  </si>
-  <si>
-    <t>Paul Martin</t>
-  </si>
-  <si>
-    <t>Lisa Aguilar</t>
-  </si>
-  <si>
-    <t>Garrett Smith</t>
-  </si>
-  <si>
-    <t>Michaela Thomas</t>
-  </si>
-  <si>
-    <t>Gregory Mcclain</t>
-  </si>
-  <si>
-    <t>Kyle Rangel</t>
-  </si>
-  <si>
-    <t>Stephanie Mccarty</t>
-  </si>
-  <si>
-    <t>Nicholas Phelps</t>
-  </si>
-  <si>
-    <t>Amanda Oneill</t>
-  </si>
-  <si>
-    <t>Christian Salinas</t>
-  </si>
-  <si>
-    <t>Linda Smith</t>
-  </si>
-  <si>
-    <t>Robert Roman DDS</t>
-  </si>
-  <si>
-    <t>Daniel Avila</t>
+    <t>RR0B3L6N5ZHCNPCKW</t>
+  </si>
+  <si>
+    <t>0A9H6VYU2MRD3A3EH</t>
+  </si>
+  <si>
+    <t>ZA40ZD134BUA0UZ1J</t>
+  </si>
+  <si>
+    <t>FATXUB6T4K17B5JBR</t>
+  </si>
+  <si>
+    <t>5HPY79MH8GLMSWJYU</t>
+  </si>
+  <si>
+    <t>WJ50UZHW7D0KDYJ3T</t>
+  </si>
+  <si>
+    <t>JSN3SDYEXT77TCF75</t>
+  </si>
+  <si>
+    <t>GBYBAJ099YW1BCS12</t>
+  </si>
+  <si>
+    <t>X5NTXAMA1M00DB3HZ</t>
+  </si>
+  <si>
+    <t>T62JVK5Y6F27YZHUA</t>
+  </si>
+  <si>
+    <t>0SF540P68CBD629C0</t>
+  </si>
+  <si>
+    <t>VNVACVMXXBXNX38HA</t>
+  </si>
+  <si>
+    <t>1X7AMZWL75ZCPM5SE</t>
+  </si>
+  <si>
+    <t>AMS0TFXW9VWWKW8Z3</t>
+  </si>
+  <si>
+    <t>WRZ3AK3M6EH7A7BJ0</t>
+  </si>
+  <si>
+    <t>7LZ0E6HH3UTZFY104</t>
+  </si>
+  <si>
+    <t>S894FJHP9CMC7LYCW</t>
+  </si>
+  <si>
+    <t>CV48G6HV72SZM06CX</t>
+  </si>
+  <si>
+    <t>202DA3D667FBG6H9C</t>
+  </si>
+  <si>
+    <t>02TPGEN41PKZ2C1GN</t>
+  </si>
+  <si>
+    <t>E2WYELS90YZ6FWNNE</t>
+  </si>
+  <si>
+    <t>MYXWTHE043XCMCU7X</t>
+  </si>
+  <si>
+    <t>8B2T34BVXBURNJC5B</t>
+  </si>
+  <si>
+    <t>C8FTVBY44RMDP0W4W</t>
+  </si>
+  <si>
+    <t>EG0EST4D817N4YMK3</t>
+  </si>
+  <si>
+    <t>PD9YLXYKXHXCU345L</t>
+  </si>
+  <si>
+    <t>UCDS2HY61LW4TC9F6</t>
+  </si>
+  <si>
+    <t>XW19VHC88KKU0NUTJ</t>
+  </si>
+  <si>
+    <t>K42Z3Z3U0WFFLZLLS</t>
+  </si>
+  <si>
+    <t>RMD3X2VR68C7UTXXC</t>
+  </si>
+  <si>
+    <t>L93FYL8S96SLR0Y73</t>
+  </si>
+  <si>
+    <t>B2S2RZYTXRTRESTSD</t>
+  </si>
+  <si>
+    <t>0HWEB0JH30NPDP45A</t>
+  </si>
+  <si>
+    <t>RDLH84P94LS0TN343</t>
+  </si>
+  <si>
+    <t>90J4AAWR80UU5CXVY</t>
+  </si>
+  <si>
+    <t>ZCFE2CE81SDVZLYH7</t>
+  </si>
+  <si>
+    <t>57S8X0BEXT7V1HHKX</t>
+  </si>
+  <si>
+    <t>VHL3J86S9Y8M7GSRC</t>
+  </si>
+  <si>
+    <t>WDPRM4N609E635MNM</t>
+  </si>
+  <si>
+    <t>L3Z9N2FJ59P64TU3V</t>
+  </si>
+  <si>
+    <t>RRP8P0PK75KRJ6MX2</t>
+  </si>
+  <si>
+    <t>FMUYHF7L7HL6YDA5N</t>
+  </si>
+  <si>
+    <t>JK0G4VFBX83A256LG</t>
+  </si>
+  <si>
+    <t>YYM7PK2N6C3BU4LBM</t>
+  </si>
+  <si>
+    <t>8ASLT2HR2B7KNFL1J</t>
+  </si>
+  <si>
+    <t>2BGBJHJX442YYL0FZ</t>
+  </si>
+  <si>
+    <t>Andrea Ruiz</t>
+  </si>
+  <si>
+    <t>David Porter</t>
+  </si>
+  <si>
+    <t>Lauren Gomez</t>
+  </si>
+  <si>
+    <t>Jeff Andrews</t>
+  </si>
+  <si>
+    <t>Todd Robertson DVM</t>
+  </si>
+  <si>
+    <t>Catherine Buchanan</t>
+  </si>
+  <si>
+    <t>Taylor Cobb</t>
+  </si>
+  <si>
+    <t>Kathryn Norman</t>
+  </si>
+  <si>
+    <t>Erik Hernandez</t>
+  </si>
+  <si>
+    <t>Jenna Jones MD</t>
+  </si>
+  <si>
+    <t>James Perez</t>
+  </si>
+  <si>
+    <t>Diana Rodriguez</t>
+  </si>
+  <si>
+    <t>Tiffany Martin</t>
+  </si>
+  <si>
+    <t>Danielle Jacobs</t>
+  </si>
+  <si>
+    <t>Jose Davis</t>
+  </si>
+  <si>
+    <t>Charlene Martinez</t>
+  </si>
+  <si>
+    <t>Victoria Miller</t>
+  </si>
+  <si>
+    <t>Marvin Larson</t>
+  </si>
+  <si>
+    <t>Brandon Hill</t>
+  </si>
+  <si>
+    <t>Joshua Reeves</t>
+  </si>
+  <si>
+    <t>Charles Green</t>
+  </si>
+  <si>
+    <t>Mr. Jeremy Barnes</t>
+  </si>
+  <si>
+    <t>Nicholas Burton</t>
+  </si>
+  <si>
+    <t>Hannah Chapman</t>
+  </si>
+  <si>
+    <t>James Vincent</t>
+  </si>
+  <si>
+    <t>Stanley Bell</t>
+  </si>
+  <si>
+    <t>Ryan Whitehead</t>
+  </si>
+  <si>
+    <t>Pamela James</t>
+  </si>
+  <si>
+    <t>Timothy Stein</t>
+  </si>
+  <si>
+    <t>Katherine Silva</t>
+  </si>
+  <si>
+    <t>John Hinton</t>
+  </si>
+  <si>
+    <t>Mr. Justin Serrano MD</t>
+  </si>
+  <si>
+    <t>Christine Powell</t>
+  </si>
+  <si>
+    <t>Robert Collins</t>
+  </si>
+  <si>
+    <t>Andrea Bowers</t>
+  </si>
+  <si>
+    <t>Tara Ho</t>
+  </si>
+  <si>
+    <t>Sean Ramirez</t>
+  </si>
+  <si>
+    <t>Andrew Sanchez</t>
+  </si>
+  <si>
+    <t>Nicholas Robertson</t>
+  </si>
+  <si>
+    <t>Heather Compton</t>
+  </si>
+  <si>
+    <t>Amy Morris</t>
+  </si>
+  <si>
+    <t>Christopher Peterson</t>
+  </si>
+  <si>
+    <t>Alexis Vang</t>
+  </si>
+  <si>
+    <t>Francisco Luna</t>
+  </si>
+  <si>
+    <t>Sara Hill</t>
+  </si>
+  <si>
+    <t>Jessica Nguyen</t>
   </si>
   <si>
     <t>KLSE</t>
@@ -686,7 +698,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F210"/>
+  <dimension ref="A1:F278"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -723,10 +735,10 @@
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -740,10 +752,10 @@
         <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E3" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -757,10 +769,10 @@
         <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E4" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -774,10 +786,10 @@
         <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E5" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -791,10 +803,10 @@
         <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E6" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -808,10 +820,10 @@
         <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E7" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -822,13 +834,13 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E8" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -842,10 +854,10 @@
         <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E9" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -859,10 +871,10 @@
         <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E10" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -876,10 +888,10 @@
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E11" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -893,10 +905,10 @@
         <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E12" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -907,13 +919,13 @@
         <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D13" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E13" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -924,13 +936,13 @@
         <v>7</v>
       </c>
       <c r="C14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D14" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E14" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -944,10 +956,10 @@
         <v>11</v>
       </c>
       <c r="D15" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E15" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -961,10 +973,10 @@
         <v>11</v>
       </c>
       <c r="D16" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E16" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -975,13 +987,13 @@
         <v>7</v>
       </c>
       <c r="C17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E17" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -992,13 +1004,13 @@
         <v>7</v>
       </c>
       <c r="C18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E18" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1009,13 +1021,13 @@
         <v>7</v>
       </c>
       <c r="C19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D19" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E19" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1026,13 +1038,13 @@
         <v>7</v>
       </c>
       <c r="C20" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D20" t="s">
         <v>57</v>
       </c>
       <c r="E20" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1043,13 +1055,13 @@
         <v>7</v>
       </c>
       <c r="C21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E21" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1060,13 +1072,13 @@
         <v>7</v>
       </c>
       <c r="C22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E22" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1077,13 +1089,13 @@
         <v>7</v>
       </c>
       <c r="C23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D23" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E23" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1094,13 +1106,13 @@
         <v>7</v>
       </c>
       <c r="C24" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D24" t="s">
         <v>58</v>
       </c>
       <c r="E24" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1111,13 +1123,13 @@
         <v>7</v>
       </c>
       <c r="C25" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D25" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E25" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1128,13 +1140,13 @@
         <v>7</v>
       </c>
       <c r="C26" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D26" t="s">
         <v>59</v>
       </c>
       <c r="E26" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1145,13 +1157,13 @@
         <v>7</v>
       </c>
       <c r="C27" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D27" t="s">
         <v>59</v>
       </c>
       <c r="E27" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1162,13 +1174,13 @@
         <v>7</v>
       </c>
       <c r="C28" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D28" t="s">
         <v>59</v>
       </c>
       <c r="E28" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1179,13 +1191,13 @@
         <v>7</v>
       </c>
       <c r="C29" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D29" t="s">
         <v>59</v>
       </c>
       <c r="E29" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1196,13 +1208,13 @@
         <v>7</v>
       </c>
       <c r="C30" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D30" t="s">
         <v>59</v>
       </c>
       <c r="E30" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1213,13 +1225,13 @@
         <v>7</v>
       </c>
       <c r="C31" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D31" t="s">
         <v>59</v>
       </c>
       <c r="E31" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1230,13 +1242,13 @@
         <v>7</v>
       </c>
       <c r="C32" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D32" t="s">
         <v>59</v>
       </c>
       <c r="E32" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1247,13 +1259,13 @@
         <v>7</v>
       </c>
       <c r="C33" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D33" t="s">
         <v>59</v>
       </c>
       <c r="E33" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1264,13 +1276,13 @@
         <v>7</v>
       </c>
       <c r="C34" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D34" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E34" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1281,13 +1293,13 @@
         <v>7</v>
       </c>
       <c r="C35" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D35" t="s">
         <v>60</v>
       </c>
       <c r="E35" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1298,13 +1310,13 @@
         <v>7</v>
       </c>
       <c r="C36" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D36" t="s">
         <v>60</v>
       </c>
       <c r="E36" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1315,13 +1327,13 @@
         <v>7</v>
       </c>
       <c r="C37" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D37" t="s">
         <v>60</v>
       </c>
       <c r="E37" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1332,13 +1344,13 @@
         <v>7</v>
       </c>
       <c r="C38" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D38" t="s">
         <v>60</v>
       </c>
       <c r="E38" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1349,13 +1361,13 @@
         <v>7</v>
       </c>
       <c r="C39" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D39" t="s">
         <v>60</v>
       </c>
       <c r="E39" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1366,13 +1378,13 @@
         <v>7</v>
       </c>
       <c r="C40" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D40" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E40" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1383,13 +1395,13 @@
         <v>7</v>
       </c>
       <c r="C41" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D41" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E41" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1400,13 +1412,13 @@
         <v>7</v>
       </c>
       <c r="C42" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D42" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E42" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1417,13 +1429,13 @@
         <v>7</v>
       </c>
       <c r="C43" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D43" t="s">
         <v>61</v>
       </c>
       <c r="E43" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1434,13 +1446,13 @@
         <v>7</v>
       </c>
       <c r="C44" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D44" t="s">
         <v>61</v>
       </c>
       <c r="E44" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1451,13 +1463,13 @@
         <v>7</v>
       </c>
       <c r="C45" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D45" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E45" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1468,13 +1480,13 @@
         <v>7</v>
       </c>
       <c r="C46" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D46" t="s">
         <v>62</v>
       </c>
       <c r="E46" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1485,13 +1497,13 @@
         <v>7</v>
       </c>
       <c r="C47" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D47" t="s">
         <v>62</v>
       </c>
       <c r="E47" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1502,13 +1514,13 @@
         <v>7</v>
       </c>
       <c r="C48" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D48" t="s">
         <v>62</v>
       </c>
       <c r="E48" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1519,13 +1531,13 @@
         <v>7</v>
       </c>
       <c r="C49" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D49" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E49" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1536,13 +1548,13 @@
         <v>7</v>
       </c>
       <c r="C50" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D50" t="s">
         <v>63</v>
       </c>
       <c r="E50" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1553,13 +1565,13 @@
         <v>7</v>
       </c>
       <c r="C51" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D51" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E51" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1570,13 +1582,13 @@
         <v>7</v>
       </c>
       <c r="C52" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D52" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E52" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1587,13 +1599,13 @@
         <v>7</v>
       </c>
       <c r="C53" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D53" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E53" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1604,13 +1616,13 @@
         <v>7</v>
       </c>
       <c r="C54" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D54" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E54" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1621,13 +1633,13 @@
         <v>7</v>
       </c>
       <c r="C55" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D55" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E55" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1638,13 +1650,13 @@
         <v>7</v>
       </c>
       <c r="C56" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D56" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E56" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1655,13 +1667,13 @@
         <v>7</v>
       </c>
       <c r="C57" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D57" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E57" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1672,13 +1684,13 @@
         <v>7</v>
       </c>
       <c r="C58" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D58" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E58" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1689,13 +1701,13 @@
         <v>7</v>
       </c>
       <c r="C59" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D59" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E59" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1706,13 +1718,13 @@
         <v>7</v>
       </c>
       <c r="C60" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D60" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E60" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1723,13 +1735,13 @@
         <v>7</v>
       </c>
       <c r="C61" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D61" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E61" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1740,13 +1752,13 @@
         <v>7</v>
       </c>
       <c r="C62" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D62" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E62" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1757,13 +1769,13 @@
         <v>7</v>
       </c>
       <c r="C63" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D63" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E63" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -1774,13 +1786,13 @@
         <v>7</v>
       </c>
       <c r="C64" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D64" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E64" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -1791,13 +1803,13 @@
         <v>7</v>
       </c>
       <c r="C65" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D65" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E65" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -1808,13 +1820,13 @@
         <v>7</v>
       </c>
       <c r="C66" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D66" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -1825,13 +1837,13 @@
         <v>7</v>
       </c>
       <c r="C67" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D67" t="s">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -1842,13 +1854,13 @@
         <v>7</v>
       </c>
       <c r="C68" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D68" t="s">
         <v>66</v>
       </c>
       <c r="E68" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -1859,13 +1871,13 @@
         <v>7</v>
       </c>
       <c r="C69" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D69" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E69" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -1876,13 +1888,13 @@
         <v>7</v>
       </c>
       <c r="C70" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D70" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E70" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -1893,13 +1905,13 @@
         <v>7</v>
       </c>
       <c r="C71" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D71" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E71" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -1910,13 +1922,13 @@
         <v>7</v>
       </c>
       <c r="C72" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D72" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E72" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -1927,13 +1939,13 @@
         <v>7</v>
       </c>
       <c r="C73" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D73" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E73" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -1944,13 +1956,13 @@
         <v>7</v>
       </c>
       <c r="C74" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D74" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E74" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -1961,13 +1973,13 @@
         <v>7</v>
       </c>
       <c r="C75" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D75" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E75" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -1978,13 +1990,13 @@
         <v>7</v>
       </c>
       <c r="C76" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D76" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E76" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -1995,13 +2007,13 @@
         <v>7</v>
       </c>
       <c r="C77" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D77" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E77" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -2012,13 +2024,13 @@
         <v>7</v>
       </c>
       <c r="C78" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D78" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E78" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -2029,13 +2041,13 @@
         <v>7</v>
       </c>
       <c r="C79" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D79" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E79" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -2046,13 +2058,13 @@
         <v>7</v>
       </c>
       <c r="C80" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D80" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E80" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -2063,13 +2075,13 @@
         <v>7</v>
       </c>
       <c r="C81" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D81" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E81" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -2080,13 +2092,13 @@
         <v>7</v>
       </c>
       <c r="C82" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D82" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E82" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -2097,13 +2109,13 @@
         <v>7</v>
       </c>
       <c r="C83" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D83" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E83" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -2114,13 +2126,13 @@
         <v>7</v>
       </c>
       <c r="C84" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D84" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E84" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -2131,13 +2143,13 @@
         <v>7</v>
       </c>
       <c r="C85" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D85" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E85" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -2148,13 +2160,13 @@
         <v>7</v>
       </c>
       <c r="C86" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D86" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E86" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -2165,13 +2177,13 @@
         <v>7</v>
       </c>
       <c r="C87" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D87" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E87" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -2182,13 +2194,13 @@
         <v>7</v>
       </c>
       <c r="C88" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D88" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E88" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -2199,13 +2211,13 @@
         <v>7</v>
       </c>
       <c r="C89" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D89" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E89" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -2216,13 +2228,13 @@
         <v>7</v>
       </c>
       <c r="C90" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D90" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E90" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -2233,13 +2245,13 @@
         <v>7</v>
       </c>
       <c r="C91" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D91" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E91" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -2250,13 +2262,13 @@
         <v>7</v>
       </c>
       <c r="C92" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D92" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E92" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -2267,13 +2279,13 @@
         <v>7</v>
       </c>
       <c r="C93" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D93" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E93" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -2284,13 +2296,13 @@
         <v>7</v>
       </c>
       <c r="C94" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D94" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E94" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -2301,13 +2313,13 @@
         <v>7</v>
       </c>
       <c r="C95" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D95" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E95" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -2318,13 +2330,13 @@
         <v>7</v>
       </c>
       <c r="C96" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D96" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E96" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -2335,13 +2347,13 @@
         <v>7</v>
       </c>
       <c r="C97" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D97" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E97" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -2352,13 +2364,13 @@
         <v>7</v>
       </c>
       <c r="C98" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D98" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E98" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -2369,13 +2381,13 @@
         <v>7</v>
       </c>
       <c r="C99" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D99" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E99" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -2386,13 +2398,13 @@
         <v>7</v>
       </c>
       <c r="C100" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D100" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E100" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -2403,13 +2415,13 @@
         <v>7</v>
       </c>
       <c r="C101" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D101" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E101" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -2420,13 +2432,13 @@
         <v>7</v>
       </c>
       <c r="C102" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D102" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E102" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -2437,13 +2449,13 @@
         <v>7</v>
       </c>
       <c r="C103" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D103" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E103" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -2454,13 +2466,13 @@
         <v>7</v>
       </c>
       <c r="C104" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D104" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E104" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -2471,13 +2483,13 @@
         <v>7</v>
       </c>
       <c r="C105" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D105" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E105" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -2488,13 +2500,13 @@
         <v>7</v>
       </c>
       <c r="C106" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D106" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="E106" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -2505,13 +2517,13 @@
         <v>7</v>
       </c>
       <c r="C107" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D107" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="E107" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -2522,13 +2534,13 @@
         <v>7</v>
       </c>
       <c r="C108" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D108" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="E108" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -2539,13 +2551,13 @@
         <v>7</v>
       </c>
       <c r="C109" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D109" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E109" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -2556,13 +2568,13 @@
         <v>7</v>
       </c>
       <c r="C110" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D110" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E110" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -2573,13 +2585,13 @@
         <v>7</v>
       </c>
       <c r="C111" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D111" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E111" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -2590,13 +2602,13 @@
         <v>7</v>
       </c>
       <c r="C112" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D112" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E112" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -2607,13 +2619,13 @@
         <v>7</v>
       </c>
       <c r="C113" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D113" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E113" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -2624,13 +2636,13 @@
         <v>7</v>
       </c>
       <c r="C114" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D114" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E114" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -2641,13 +2653,13 @@
         <v>7</v>
       </c>
       <c r="C115" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D115" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E115" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -2658,13 +2670,13 @@
         <v>7</v>
       </c>
       <c r="C116" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D116" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E116" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -2675,13 +2687,13 @@
         <v>7</v>
       </c>
       <c r="C117" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D117" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E117" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -2692,13 +2704,13 @@
         <v>7</v>
       </c>
       <c r="C118" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D118" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E118" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -2709,13 +2721,13 @@
         <v>7</v>
       </c>
       <c r="C119" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D119" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E119" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -2726,13 +2738,13 @@
         <v>7</v>
       </c>
       <c r="C120" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D120" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="E120" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -2743,13 +2755,13 @@
         <v>7</v>
       </c>
       <c r="C121" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D121" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="E121" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -2760,13 +2772,13 @@
         <v>7</v>
       </c>
       <c r="C122" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D122" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="E122" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -2777,13 +2789,13 @@
         <v>7</v>
       </c>
       <c r="C123" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D123" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="E123" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -2794,13 +2806,13 @@
         <v>7</v>
       </c>
       <c r="C124" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D124" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="E124" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -2811,13 +2823,13 @@
         <v>7</v>
       </c>
       <c r="C125" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D125" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="E125" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -2828,13 +2840,13 @@
         <v>7</v>
       </c>
       <c r="C126" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="D126" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="E126" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -2845,13 +2857,13 @@
         <v>7</v>
       </c>
       <c r="C127" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="D127" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="E127" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -2862,13 +2874,13 @@
         <v>7</v>
       </c>
       <c r="C128" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="D128" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="E128" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -2879,13 +2891,13 @@
         <v>7</v>
       </c>
       <c r="C129" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="D129" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="E129" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -2896,13 +2908,13 @@
         <v>7</v>
       </c>
       <c r="C130" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="D130" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="E130" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -2913,13 +2925,13 @@
         <v>7</v>
       </c>
       <c r="C131" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="D131" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="E131" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -2930,13 +2942,13 @@
         <v>7</v>
       </c>
       <c r="C132" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="D132" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="E132" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -2947,13 +2959,13 @@
         <v>7</v>
       </c>
       <c r="C133" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="D133" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="E133" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -2964,13 +2976,13 @@
         <v>7</v>
       </c>
       <c r="C134" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="D134" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="E134" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -2981,13 +2993,13 @@
         <v>7</v>
       </c>
       <c r="C135" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="D135" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="E135" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -2998,13 +3010,13 @@
         <v>7</v>
       </c>
       <c r="C136" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="D136" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="E136" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -3015,13 +3027,13 @@
         <v>7</v>
       </c>
       <c r="C137" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="D137" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="E137" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -3032,13 +3044,13 @@
         <v>7</v>
       </c>
       <c r="C138" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="D138" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="E138" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -3049,13 +3061,13 @@
         <v>7</v>
       </c>
       <c r="C139" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="D139" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="E139" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -3066,13 +3078,13 @@
         <v>7</v>
       </c>
       <c r="C140" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="D140" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="E140" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -3083,13 +3095,13 @@
         <v>7</v>
       </c>
       <c r="C141" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="D141" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="E141" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -3100,13 +3112,13 @@
         <v>7</v>
       </c>
       <c r="C142" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D142" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E142" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -3117,13 +3129,13 @@
         <v>7</v>
       </c>
       <c r="C143" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D143" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E143" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -3134,13 +3146,13 @@
         <v>7</v>
       </c>
       <c r="C144" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D144" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E144" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -3151,13 +3163,13 @@
         <v>7</v>
       </c>
       <c r="C145" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D145" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E145" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -3168,10 +3180,10 @@
         <v>7</v>
       </c>
       <c r="C146" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D146" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="E146" t="s">
         <v>100</v>
@@ -3185,10 +3197,10 @@
         <v>7</v>
       </c>
       <c r="C147" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D147" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="E147" t="s">
         <v>101</v>
@@ -3202,10 +3214,10 @@
         <v>7</v>
       </c>
       <c r="C148" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D148" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="E148" t="s">
         <v>102</v>
@@ -3219,10 +3231,10 @@
         <v>7</v>
       </c>
       <c r="C149" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D149" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="E149" t="s">
         <v>103</v>
@@ -3236,13 +3248,13 @@
         <v>7</v>
       </c>
       <c r="C150" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="D150" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="E150" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -3253,13 +3265,13 @@
         <v>7</v>
       </c>
       <c r="C151" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="D151" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="E151" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -3270,13 +3282,13 @@
         <v>7</v>
       </c>
       <c r="C152" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="D152" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="E152" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -3287,13 +3299,13 @@
         <v>7</v>
       </c>
       <c r="C153" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="D153" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="E153" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -3304,13 +3316,13 @@
         <v>7</v>
       </c>
       <c r="C154" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D154" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="E154" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -3321,13 +3333,13 @@
         <v>7</v>
       </c>
       <c r="C155" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D155" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="E155" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -3338,13 +3350,13 @@
         <v>7</v>
       </c>
       <c r="C156" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="D156" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="E156" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -3355,13 +3367,13 @@
         <v>7</v>
       </c>
       <c r="C157" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="D157" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="E157" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -3372,13 +3384,13 @@
         <v>7</v>
       </c>
       <c r="C158" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="D158" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="E158" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -3389,13 +3401,13 @@
         <v>7</v>
       </c>
       <c r="C159" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="D159" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="E159" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -3406,13 +3418,13 @@
         <v>7</v>
       </c>
       <c r="C160" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="D160" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="E160" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -3423,13 +3435,13 @@
         <v>7</v>
       </c>
       <c r="C161" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="D161" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="E161" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -3440,13 +3452,13 @@
         <v>7</v>
       </c>
       <c r="C162" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="D162" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="E162" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -3457,13 +3469,13 @@
         <v>7</v>
       </c>
       <c r="C163" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="D163" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="E163" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -3474,13 +3486,13 @@
         <v>7</v>
       </c>
       <c r="C164" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="D164" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="E164" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -3491,13 +3503,13 @@
         <v>7</v>
       </c>
       <c r="C165" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="D165" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="E165" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -3508,13 +3520,13 @@
         <v>7</v>
       </c>
       <c r="C166" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="D166" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="E166" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -3525,13 +3537,13 @@
         <v>7</v>
       </c>
       <c r="C167" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="D167" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="E167" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -3542,13 +3554,13 @@
         <v>7</v>
       </c>
       <c r="C168" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="D168" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="E168" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -3559,13 +3571,13 @@
         <v>7</v>
       </c>
       <c r="C169" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="D169" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="E169" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -3576,13 +3588,13 @@
         <v>7</v>
       </c>
       <c r="C170" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="D170" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="E170" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -3593,13 +3605,13 @@
         <v>7</v>
       </c>
       <c r="C171" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="D171" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="E171" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -3610,13 +3622,13 @@
         <v>7</v>
       </c>
       <c r="C172" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="D172" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="E172" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -3627,13 +3639,13 @@
         <v>7</v>
       </c>
       <c r="C173" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="D173" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="E173" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -3644,13 +3656,13 @@
         <v>7</v>
       </c>
       <c r="C174" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="D174" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="E174" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -3661,13 +3673,13 @@
         <v>7</v>
       </c>
       <c r="C175" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="D175" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="E175" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -3678,13 +3690,13 @@
         <v>7</v>
       </c>
       <c r="C176" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="D176" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="E176" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -3695,13 +3707,13 @@
         <v>7</v>
       </c>
       <c r="C177" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="D177" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="E177" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -3712,13 +3724,13 @@
         <v>7</v>
       </c>
       <c r="C178" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="D178" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="E178" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -3729,13 +3741,13 @@
         <v>7</v>
       </c>
       <c r="C179" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="D179" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="E179" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -3746,13 +3758,13 @@
         <v>7</v>
       </c>
       <c r="C180" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="D180" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="E180" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -3763,13 +3775,13 @@
         <v>7</v>
       </c>
       <c r="C181" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="D181" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="E181" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -3780,13 +3792,13 @@
         <v>7</v>
       </c>
       <c r="C182" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="D182" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="E182" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -3797,13 +3809,13 @@
         <v>7</v>
       </c>
       <c r="C183" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="D183" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="E183" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -3814,10 +3826,10 @@
         <v>7</v>
       </c>
       <c r="C184" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="D184" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="E184" t="s">
         <v>100</v>
@@ -3831,10 +3843,10 @@
         <v>7</v>
       </c>
       <c r="C185" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="D185" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="E185" t="s">
         <v>101</v>
@@ -3848,10 +3860,10 @@
         <v>7</v>
       </c>
       <c r="C186" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="D186" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="E186" t="s">
         <v>102</v>
@@ -3865,13 +3877,13 @@
         <v>7</v>
       </c>
       <c r="C187" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="D187" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="E187" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -3882,13 +3894,13 @@
         <v>7</v>
       </c>
       <c r="C188" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="D188" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="E188" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -3899,13 +3911,13 @@
         <v>7</v>
       </c>
       <c r="C189" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="D189" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="E189" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -3916,13 +3928,13 @@
         <v>7</v>
       </c>
       <c r="C190" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="D190" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="E190" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -3933,10 +3945,10 @@
         <v>7</v>
       </c>
       <c r="C191" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="D191" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="E191" t="s">
         <v>100</v>
@@ -3950,10 +3962,10 @@
         <v>7</v>
       </c>
       <c r="C192" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="D192" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="E192" t="s">
         <v>101</v>
@@ -3967,13 +3979,13 @@
         <v>7</v>
       </c>
       <c r="C193" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D193" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="E193" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -3984,13 +3996,13 @@
         <v>7</v>
       </c>
       <c r="C194" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D194" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="E194" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -4001,13 +4013,13 @@
         <v>7</v>
       </c>
       <c r="C195" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D195" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="E195" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -4018,13 +4030,13 @@
         <v>7</v>
       </c>
       <c r="C196" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D196" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="E196" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -4035,13 +4047,13 @@
         <v>7</v>
       </c>
       <c r="C197" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D197" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="E197" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -4052,13 +4064,13 @@
         <v>7</v>
       </c>
       <c r="C198" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D198" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="E198" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -4069,13 +4081,13 @@
         <v>7</v>
       </c>
       <c r="C199" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D199" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="E199" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -4086,13 +4098,13 @@
         <v>7</v>
       </c>
       <c r="C200" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="D200" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="E200" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -4103,13 +4115,13 @@
         <v>7</v>
       </c>
       <c r="C201" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="D201" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="E201" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -4120,13 +4132,13 @@
         <v>7</v>
       </c>
       <c r="C202" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="D202" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="E202" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
     </row>
     <row r="203" spans="1:5">
@@ -4137,13 +4149,13 @@
         <v>7</v>
       </c>
       <c r="C203" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="D203" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="E203" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -4154,13 +4166,13 @@
         <v>7</v>
       </c>
       <c r="C204" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="D204" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="E204" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -4171,13 +4183,13 @@
         <v>7</v>
       </c>
       <c r="C205" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="D205" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="E205" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="206" spans="1:5">
@@ -4188,13 +4200,13 @@
         <v>7</v>
       </c>
       <c r="C206" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="D206" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="E206" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -4205,13 +4217,13 @@
         <v>7</v>
       </c>
       <c r="C207" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="D207" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="E207" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -4222,13 +4234,13 @@
         <v>7</v>
       </c>
       <c r="C208" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="D208" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="E208" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="209" spans="1:5">
@@ -4239,13 +4251,13 @@
         <v>7</v>
       </c>
       <c r="C209" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="D209" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="E209" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="210" spans="1:5">
@@ -4256,13 +4268,1169 @@
         <v>7</v>
       </c>
       <c r="C210" t="s">
+        <v>43</v>
+      </c>
+      <c r="D210" t="s">
+        <v>89</v>
+      </c>
+      <c r="E210" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5">
+      <c r="A211" t="s">
+        <v>6</v>
+      </c>
+      <c r="B211" t="s">
+        <v>7</v>
+      </c>
+      <c r="C211" t="s">
+        <v>43</v>
+      </c>
+      <c r="D211" t="s">
+        <v>89</v>
+      </c>
+      <c r="E211" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5">
+      <c r="A212" t="s">
+        <v>6</v>
+      </c>
+      <c r="B212" t="s">
+        <v>7</v>
+      </c>
+      <c r="C212" t="s">
+        <v>44</v>
+      </c>
+      <c r="D212" t="s">
+        <v>90</v>
+      </c>
+      <c r="E212" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5">
+      <c r="A213" t="s">
+        <v>6</v>
+      </c>
+      <c r="B213" t="s">
+        <v>7</v>
+      </c>
+      <c r="C213" t="s">
+        <v>44</v>
+      </c>
+      <c r="D213" t="s">
+        <v>90</v>
+      </c>
+      <c r="E213" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5">
+      <c r="A214" t="s">
+        <v>6</v>
+      </c>
+      <c r="B214" t="s">
+        <v>7</v>
+      </c>
+      <c r="C214" t="s">
+        <v>44</v>
+      </c>
+      <c r="D214" t="s">
+        <v>90</v>
+      </c>
+      <c r="E214" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5">
+      <c r="A215" t="s">
+        <v>6</v>
+      </c>
+      <c r="B215" t="s">
+        <v>7</v>
+      </c>
+      <c r="C215" t="s">
+        <v>44</v>
+      </c>
+      <c r="D215" t="s">
+        <v>90</v>
+      </c>
+      <c r="E215" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5">
+      <c r="A216" t="s">
+        <v>6</v>
+      </c>
+      <c r="B216" t="s">
+        <v>7</v>
+      </c>
+      <c r="C216" t="s">
+        <v>44</v>
+      </c>
+      <c r="D216" t="s">
+        <v>90</v>
+      </c>
+      <c r="E216" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5">
+      <c r="A217" t="s">
+        <v>6</v>
+      </c>
+      <c r="B217" t="s">
+        <v>7</v>
+      </c>
+      <c r="C217" t="s">
+        <v>44</v>
+      </c>
+      <c r="D217" t="s">
+        <v>90</v>
+      </c>
+      <c r="E217" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5">
+      <c r="A218" t="s">
+        <v>6</v>
+      </c>
+      <c r="B218" t="s">
+        <v>7</v>
+      </c>
+      <c r="C218" t="s">
+        <v>44</v>
+      </c>
+      <c r="D218" t="s">
+        <v>90</v>
+      </c>
+      <c r="E218" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5">
+      <c r="A219" t="s">
+        <v>6</v>
+      </c>
+      <c r="B219" t="s">
+        <v>7</v>
+      </c>
+      <c r="C219" t="s">
+        <v>44</v>
+      </c>
+      <c r="D219" t="s">
+        <v>90</v>
+      </c>
+      <c r="E219" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5">
+      <c r="A220" t="s">
+        <v>6</v>
+      </c>
+      <c r="B220" t="s">
+        <v>7</v>
+      </c>
+      <c r="C220" t="s">
+        <v>44</v>
+      </c>
+      <c r="D220" t="s">
+        <v>90</v>
+      </c>
+      <c r="E220" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5">
+      <c r="A221" t="s">
+        <v>6</v>
+      </c>
+      <c r="B221" t="s">
+        <v>7</v>
+      </c>
+      <c r="C221" t="s">
+        <v>45</v>
+      </c>
+      <c r="D221" t="s">
+        <v>91</v>
+      </c>
+      <c r="E221" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5">
+      <c r="A222" t="s">
+        <v>6</v>
+      </c>
+      <c r="B222" t="s">
+        <v>7</v>
+      </c>
+      <c r="C222" t="s">
+        <v>45</v>
+      </c>
+      <c r="D222" t="s">
+        <v>91</v>
+      </c>
+      <c r="E222" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5">
+      <c r="A223" t="s">
+        <v>6</v>
+      </c>
+      <c r="B223" t="s">
+        <v>7</v>
+      </c>
+      <c r="C223" t="s">
+        <v>45</v>
+      </c>
+      <c r="D223" t="s">
+        <v>91</v>
+      </c>
+      <c r="E223" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5">
+      <c r="A224" t="s">
+        <v>6</v>
+      </c>
+      <c r="B224" t="s">
+        <v>7</v>
+      </c>
+      <c r="C224" t="s">
+        <v>45</v>
+      </c>
+      <c r="D224" t="s">
+        <v>91</v>
+      </c>
+      <c r="E224" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5">
+      <c r="A225" t="s">
+        <v>6</v>
+      </c>
+      <c r="B225" t="s">
+        <v>7</v>
+      </c>
+      <c r="C225" t="s">
+        <v>45</v>
+      </c>
+      <c r="D225" t="s">
+        <v>91</v>
+      </c>
+      <c r="E225" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5">
+      <c r="A226" t="s">
+        <v>6</v>
+      </c>
+      <c r="B226" t="s">
+        <v>7</v>
+      </c>
+      <c r="C226" t="s">
+        <v>45</v>
+      </c>
+      <c r="D226" t="s">
+        <v>91</v>
+      </c>
+      <c r="E226" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5">
+      <c r="A227" t="s">
+        <v>6</v>
+      </c>
+      <c r="B227" t="s">
+        <v>7</v>
+      </c>
+      <c r="C227" t="s">
+        <v>46</v>
+      </c>
+      <c r="D227" t="s">
+        <v>92</v>
+      </c>
+      <c r="E227" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5">
+      <c r="A228" t="s">
+        <v>6</v>
+      </c>
+      <c r="B228" t="s">
+        <v>7</v>
+      </c>
+      <c r="C228" t="s">
+        <v>46</v>
+      </c>
+      <c r="D228" t="s">
+        <v>92</v>
+      </c>
+      <c r="E228" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5">
+      <c r="A229" t="s">
+        <v>6</v>
+      </c>
+      <c r="B229" t="s">
+        <v>7</v>
+      </c>
+      <c r="C229" t="s">
+        <v>46</v>
+      </c>
+      <c r="D229" t="s">
+        <v>92</v>
+      </c>
+      <c r="E229" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5">
+      <c r="A230" t="s">
+        <v>6</v>
+      </c>
+      <c r="B230" t="s">
+        <v>7</v>
+      </c>
+      <c r="C230" t="s">
+        <v>46</v>
+      </c>
+      <c r="D230" t="s">
+        <v>92</v>
+      </c>
+      <c r="E230" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5">
+      <c r="A231" t="s">
+        <v>6</v>
+      </c>
+      <c r="B231" t="s">
+        <v>7</v>
+      </c>
+      <c r="C231" t="s">
+        <v>46</v>
+      </c>
+      <c r="D231" t="s">
+        <v>92</v>
+      </c>
+      <c r="E231" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5">
+      <c r="A232" t="s">
+        <v>6</v>
+      </c>
+      <c r="B232" t="s">
+        <v>7</v>
+      </c>
+      <c r="C232" t="s">
+        <v>46</v>
+      </c>
+      <c r="D232" t="s">
+        <v>92</v>
+      </c>
+      <c r="E232" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5">
+      <c r="A233" t="s">
+        <v>6</v>
+      </c>
+      <c r="B233" t="s">
+        <v>7</v>
+      </c>
+      <c r="C233" t="s">
+        <v>46</v>
+      </c>
+      <c r="D233" t="s">
+        <v>92</v>
+      </c>
+      <c r="E233" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5">
+      <c r="A234" t="s">
+        <v>6</v>
+      </c>
+      <c r="B234" t="s">
+        <v>7</v>
+      </c>
+      <c r="C234" t="s">
+        <v>46</v>
+      </c>
+      <c r="D234" t="s">
+        <v>92</v>
+      </c>
+      <c r="E234" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5">
+      <c r="A235" t="s">
+        <v>6</v>
+      </c>
+      <c r="B235" t="s">
+        <v>7</v>
+      </c>
+      <c r="C235" t="s">
+        <v>47</v>
+      </c>
+      <c r="D235" t="s">
+        <v>93</v>
+      </c>
+      <c r="E235" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5">
+      <c r="A236" t="s">
+        <v>6</v>
+      </c>
+      <c r="B236" t="s">
+        <v>7</v>
+      </c>
+      <c r="C236" t="s">
+        <v>47</v>
+      </c>
+      <c r="D236" t="s">
+        <v>93</v>
+      </c>
+      <c r="E236" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5">
+      <c r="A237" t="s">
+        <v>6</v>
+      </c>
+      <c r="B237" t="s">
+        <v>7</v>
+      </c>
+      <c r="C237" t="s">
+        <v>48</v>
+      </c>
+      <c r="D237" t="s">
+        <v>94</v>
+      </c>
+      <c r="E237" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5">
+      <c r="A238" t="s">
+        <v>6</v>
+      </c>
+      <c r="B238" t="s">
+        <v>7</v>
+      </c>
+      <c r="C238" t="s">
+        <v>48</v>
+      </c>
+      <c r="D238" t="s">
+        <v>94</v>
+      </c>
+      <c r="E238" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5">
+      <c r="A239" t="s">
+        <v>6</v>
+      </c>
+      <c r="B239" t="s">
+        <v>7</v>
+      </c>
+      <c r="C239" t="s">
+        <v>48</v>
+      </c>
+      <c r="D239" t="s">
+        <v>94</v>
+      </c>
+      <c r="E239" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5">
+      <c r="A240" t="s">
+        <v>6</v>
+      </c>
+      <c r="B240" t="s">
+        <v>7</v>
+      </c>
+      <c r="C240" t="s">
+        <v>48</v>
+      </c>
+      <c r="D240" t="s">
+        <v>94</v>
+      </c>
+      <c r="E240" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5">
+      <c r="A241" t="s">
+        <v>6</v>
+      </c>
+      <c r="B241" t="s">
+        <v>7</v>
+      </c>
+      <c r="C241" t="s">
+        <v>48</v>
+      </c>
+      <c r="D241" t="s">
+        <v>94</v>
+      </c>
+      <c r="E241" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5">
+      <c r="A242" t="s">
+        <v>6</v>
+      </c>
+      <c r="B242" t="s">
+        <v>7</v>
+      </c>
+      <c r="C242" t="s">
+        <v>48</v>
+      </c>
+      <c r="D242" t="s">
+        <v>94</v>
+      </c>
+      <c r="E242" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5">
+      <c r="A243" t="s">
+        <v>6</v>
+      </c>
+      <c r="B243" t="s">
+        <v>7</v>
+      </c>
+      <c r="C243" t="s">
+        <v>49</v>
+      </c>
+      <c r="D243" t="s">
+        <v>95</v>
+      </c>
+      <c r="E243" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5">
+      <c r="A244" t="s">
+        <v>6</v>
+      </c>
+      <c r="B244" t="s">
+        <v>7</v>
+      </c>
+      <c r="C244" t="s">
+        <v>49</v>
+      </c>
+      <c r="D244" t="s">
+        <v>95</v>
+      </c>
+      <c r="E244" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5">
+      <c r="A245" t="s">
+        <v>6</v>
+      </c>
+      <c r="B245" t="s">
+        <v>7</v>
+      </c>
+      <c r="C245" t="s">
+        <v>49</v>
+      </c>
+      <c r="D245" t="s">
+        <v>95</v>
+      </c>
+      <c r="E245" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5">
+      <c r="A246" t="s">
+        <v>6</v>
+      </c>
+      <c r="B246" t="s">
+        <v>7</v>
+      </c>
+      <c r="C246" t="s">
+        <v>49</v>
+      </c>
+      <c r="D246" t="s">
+        <v>95</v>
+      </c>
+      <c r="E246" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5">
+      <c r="A247" t="s">
+        <v>6</v>
+      </c>
+      <c r="B247" t="s">
+        <v>7</v>
+      </c>
+      <c r="C247" t="s">
+        <v>49</v>
+      </c>
+      <c r="D247" t="s">
+        <v>95</v>
+      </c>
+      <c r="E247" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5">
+      <c r="A248" t="s">
+        <v>6</v>
+      </c>
+      <c r="B248" t="s">
+        <v>7</v>
+      </c>
+      <c r="C248" t="s">
+        <v>50</v>
+      </c>
+      <c r="D248" t="s">
+        <v>96</v>
+      </c>
+      <c r="E248" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5">
+      <c r="A249" t="s">
+        <v>6</v>
+      </c>
+      <c r="B249" t="s">
+        <v>7</v>
+      </c>
+      <c r="C249" t="s">
+        <v>50</v>
+      </c>
+      <c r="D249" t="s">
+        <v>96</v>
+      </c>
+      <c r="E249" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5">
+      <c r="A250" t="s">
+        <v>6</v>
+      </c>
+      <c r="B250" t="s">
+        <v>7</v>
+      </c>
+      <c r="C250" t="s">
+        <v>50</v>
+      </c>
+      <c r="D250" t="s">
+        <v>96</v>
+      </c>
+      <c r="E250" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5">
+      <c r="A251" t="s">
+        <v>6</v>
+      </c>
+      <c r="B251" t="s">
+        <v>7</v>
+      </c>
+      <c r="C251" t="s">
+        <v>50</v>
+      </c>
+      <c r="D251" t="s">
+        <v>96</v>
+      </c>
+      <c r="E251" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5">
+      <c r="A252" t="s">
+        <v>6</v>
+      </c>
+      <c r="B252" t="s">
+        <v>7</v>
+      </c>
+      <c r="C252" t="s">
+        <v>50</v>
+      </c>
+      <c r="D252" t="s">
+        <v>96</v>
+      </c>
+      <c r="E252" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5">
+      <c r="A253" t="s">
+        <v>6</v>
+      </c>
+      <c r="B253" t="s">
+        <v>7</v>
+      </c>
+      <c r="C253" t="s">
+        <v>50</v>
+      </c>
+      <c r="D253" t="s">
+        <v>96</v>
+      </c>
+      <c r="E253" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5">
+      <c r="A254" t="s">
+        <v>6</v>
+      </c>
+      <c r="B254" t="s">
+        <v>7</v>
+      </c>
+      <c r="C254" t="s">
+        <v>50</v>
+      </c>
+      <c r="D254" t="s">
+        <v>96</v>
+      </c>
+      <c r="E254" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5">
+      <c r="A255" t="s">
+        <v>6</v>
+      </c>
+      <c r="B255" t="s">
+        <v>7</v>
+      </c>
+      <c r="C255" t="s">
+        <v>50</v>
+      </c>
+      <c r="D255" t="s">
+        <v>96</v>
+      </c>
+      <c r="E255" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5">
+      <c r="A256" t="s">
+        <v>6</v>
+      </c>
+      <c r="B256" t="s">
+        <v>7</v>
+      </c>
+      <c r="C256" t="s">
+        <v>50</v>
+      </c>
+      <c r="D256" t="s">
+        <v>96</v>
+      </c>
+      <c r="E256" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5">
+      <c r="A257" t="s">
+        <v>6</v>
+      </c>
+      <c r="B257" t="s">
+        <v>7</v>
+      </c>
+      <c r="C257" t="s">
         <v>51</v>
       </c>
-      <c r="D210" t="s">
-        <v>95</v>
-      </c>
-      <c r="E210" t="s">
+      <c r="D257" t="s">
+        <v>97</v>
+      </c>
+      <c r="E257" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5">
+      <c r="A258" t="s">
+        <v>6</v>
+      </c>
+      <c r="B258" t="s">
+        <v>7</v>
+      </c>
+      <c r="C258" t="s">
+        <v>51</v>
+      </c>
+      <c r="D258" t="s">
+        <v>97</v>
+      </c>
+      <c r="E258" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5">
+      <c r="A259" t="s">
+        <v>6</v>
+      </c>
+      <c r="B259" t="s">
+        <v>7</v>
+      </c>
+      <c r="C259" t="s">
+        <v>51</v>
+      </c>
+      <c r="D259" t="s">
+        <v>97</v>
+      </c>
+      <c r="E259" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5">
+      <c r="A260" t="s">
+        <v>6</v>
+      </c>
+      <c r="B260" t="s">
+        <v>7</v>
+      </c>
+      <c r="C260" t="s">
+        <v>51</v>
+      </c>
+      <c r="D260" t="s">
+        <v>97</v>
+      </c>
+      <c r="E260" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5">
+      <c r="A261" t="s">
+        <v>6</v>
+      </c>
+      <c r="B261" t="s">
+        <v>7</v>
+      </c>
+      <c r="C261" t="s">
+        <v>51</v>
+      </c>
+      <c r="D261" t="s">
+        <v>97</v>
+      </c>
+      <c r="E261" t="s">
         <v>104</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5">
+      <c r="A262" t="s">
+        <v>6</v>
+      </c>
+      <c r="B262" t="s">
+        <v>7</v>
+      </c>
+      <c r="C262" t="s">
+        <v>51</v>
+      </c>
+      <c r="D262" t="s">
+        <v>97</v>
+      </c>
+      <c r="E262" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5">
+      <c r="A263" t="s">
+        <v>6</v>
+      </c>
+      <c r="B263" t="s">
+        <v>7</v>
+      </c>
+      <c r="C263" t="s">
+        <v>51</v>
+      </c>
+      <c r="D263" t="s">
+        <v>97</v>
+      </c>
+      <c r="E263" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5">
+      <c r="A264" t="s">
+        <v>6</v>
+      </c>
+      <c r="B264" t="s">
+        <v>7</v>
+      </c>
+      <c r="C264" t="s">
+        <v>51</v>
+      </c>
+      <c r="D264" t="s">
+        <v>97</v>
+      </c>
+      <c r="E264" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5">
+      <c r="A265" t="s">
+        <v>6</v>
+      </c>
+      <c r="B265" t="s">
+        <v>7</v>
+      </c>
+      <c r="C265" t="s">
+        <v>52</v>
+      </c>
+      <c r="D265" t="s">
+        <v>98</v>
+      </c>
+      <c r="E265" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5">
+      <c r="A266" t="s">
+        <v>6</v>
+      </c>
+      <c r="B266" t="s">
+        <v>7</v>
+      </c>
+      <c r="C266" t="s">
+        <v>52</v>
+      </c>
+      <c r="D266" t="s">
+        <v>98</v>
+      </c>
+      <c r="E266" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5">
+      <c r="A267" t="s">
+        <v>6</v>
+      </c>
+      <c r="B267" t="s">
+        <v>7</v>
+      </c>
+      <c r="C267" t="s">
+        <v>52</v>
+      </c>
+      <c r="D267" t="s">
+        <v>98</v>
+      </c>
+      <c r="E267" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5">
+      <c r="A268" t="s">
+        <v>6</v>
+      </c>
+      <c r="B268" t="s">
+        <v>7</v>
+      </c>
+      <c r="C268" t="s">
+        <v>52</v>
+      </c>
+      <c r="D268" t="s">
+        <v>98</v>
+      </c>
+      <c r="E268" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5">
+      <c r="A269" t="s">
+        <v>6</v>
+      </c>
+      <c r="B269" t="s">
+        <v>7</v>
+      </c>
+      <c r="C269" t="s">
+        <v>52</v>
+      </c>
+      <c r="D269" t="s">
+        <v>98</v>
+      </c>
+      <c r="E269" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5">
+      <c r="A270" t="s">
+        <v>6</v>
+      </c>
+      <c r="B270" t="s">
+        <v>7</v>
+      </c>
+      <c r="C270" t="s">
+        <v>52</v>
+      </c>
+      <c r="D270" t="s">
+        <v>98</v>
+      </c>
+      <c r="E270" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5">
+      <c r="A271" t="s">
+        <v>6</v>
+      </c>
+      <c r="B271" t="s">
+        <v>7</v>
+      </c>
+      <c r="C271" t="s">
+        <v>53</v>
+      </c>
+      <c r="D271" t="s">
+        <v>99</v>
+      </c>
+      <c r="E271" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5">
+      <c r="A272" t="s">
+        <v>6</v>
+      </c>
+      <c r="B272" t="s">
+        <v>7</v>
+      </c>
+      <c r="C272" t="s">
+        <v>53</v>
+      </c>
+      <c r="D272" t="s">
+        <v>99</v>
+      </c>
+      <c r="E272" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5">
+      <c r="A273" t="s">
+        <v>6</v>
+      </c>
+      <c r="B273" t="s">
+        <v>7</v>
+      </c>
+      <c r="C273" t="s">
+        <v>53</v>
+      </c>
+      <c r="D273" t="s">
+        <v>99</v>
+      </c>
+      <c r="E273" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5">
+      <c r="A274" t="s">
+        <v>6</v>
+      </c>
+      <c r="B274" t="s">
+        <v>7</v>
+      </c>
+      <c r="C274" t="s">
+        <v>53</v>
+      </c>
+      <c r="D274" t="s">
+        <v>99</v>
+      </c>
+      <c r="E274" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5">
+      <c r="A275" t="s">
+        <v>6</v>
+      </c>
+      <c r="B275" t="s">
+        <v>7</v>
+      </c>
+      <c r="C275" t="s">
+        <v>53</v>
+      </c>
+      <c r="D275" t="s">
+        <v>99</v>
+      </c>
+      <c r="E275" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5">
+      <c r="A276" t="s">
+        <v>6</v>
+      </c>
+      <c r="B276" t="s">
+        <v>7</v>
+      </c>
+      <c r="C276" t="s">
+        <v>53</v>
+      </c>
+      <c r="D276" t="s">
+        <v>99</v>
+      </c>
+      <c r="E276" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5">
+      <c r="A277" t="s">
+        <v>6</v>
+      </c>
+      <c r="B277" t="s">
+        <v>7</v>
+      </c>
+      <c r="C277" t="s">
+        <v>53</v>
+      </c>
+      <c r="D277" t="s">
+        <v>99</v>
+      </c>
+      <c r="E277" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5">
+      <c r="A278" t="s">
+        <v>6</v>
+      </c>
+      <c r="B278" t="s">
+        <v>7</v>
+      </c>
+      <c r="C278" t="s">
+        <v>53</v>
+      </c>
+      <c r="D278" t="s">
+        <v>99</v>
+      </c>
+      <c r="E278" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>
